--- a/public/data/soil/soil_table_gabon.xlsx
+++ b/public/data/soil/soil_table_gabon.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>6648.2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.607</v>
+        <v>4.046</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>19418.8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1114.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.186</v>
+        <v>1.083</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>759.7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.022</v>
+        <v>0.716</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>8739.6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>315.9</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -892,25 +892,25 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>10853.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10959.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>156.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.135</v>
+        <v>0.492</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>1146.6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>23619.6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1904.9</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -997,25 +997,25 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>15616.3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>21415.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.253</v>
+        <v>0.484</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.56</v>
+        <v>0.884</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>3615.2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>77.6</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006</v>
+        <v>0.359</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>6352.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.443</v>
+        <v>3.965</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>6880.6</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1083.4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.014</v>
+        <v>0.739</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>7468.3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.426</v>
+        <v>1.969</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>43123</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>789.4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.176</v>
+        <v>2.588</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>12987.2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>89.9</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.094</v>
+        <v>0.965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>2842.3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>3892.3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.099</v>
+        <v>1.732</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>66.2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001</v>
+        <v>0.243</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>7059.4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.227</v>
+        <v>2.409</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1382,28 +1382,28 @@
         <v>53</v>
       </c>
       <c r="D20" t="n">
-        <v>6266.6</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13623.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>301.2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.45</v>
+        <v>1.861</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.441</v>
+        <v>3.755</v>
       </c>
       <c r="K20" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1417,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>5359.9</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1452,28 +1452,28 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>3598</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>156.1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2558.8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>441.6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.217</v>
+        <v>0.643</v>
       </c>
       <c r="I22" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.233</v>
+        <v>0.132</v>
       </c>
       <c r="K22" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1487,25 +1487,25 @@
         <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>54281.9</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6205.9</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.699</v>
+        <v>9.271</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.351</v>
+        <v>0.617</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>5531.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.267</v>
+        <v>1.93</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1557,19 +1557,19 @@
         <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>7466.9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>785.2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.367</v>
+        <v>4.862</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>45.3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004</v>
+        <v>0.152</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>9240.3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.366</v>
+        <v>6.14</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1662,19 +1662,19 @@
         <v>63</v>
       </c>
       <c r="D28" t="n">
-        <v>2650.7</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004</v>
+        <v>0.443</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>1412.6</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1732,19 +1732,19 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>2414</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>46.3</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.037</v>
+        <v>1.076</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>6033.7</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>101.9</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3649.4</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>562.6</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03</v>
+        <v>0.088</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1802,28 +1802,28 @@
         <v>68</v>
       </c>
       <c r="D32" t="n">
-        <v>4018.9</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2918.9</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>305.3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.336</v>
+        <v>2.252</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.301</v>
+        <v>1.151</v>
       </c>
       <c r="K32" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1837,25 +1837,25 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>2427.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5097.9</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>1.676</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.346</v>
+        <v>1.428</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="n">
-        <v>19776</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.405</v>
+        <v>9.875</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>7120.3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>109.3</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>74</v>
       </c>
       <c r="D37" t="n">
-        <v>940.2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.023</v>
+        <v>0.696</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2012,19 +2012,19 @@
         <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>3074.3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>176.5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.028</v>
+        <v>0.134</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_gabon.xlsx
+++ b/public/data/soil/soil_table_gabon.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3224.5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -787,13 +787,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4201.7</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>360.4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6380.1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3984.1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2120.4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1430.8</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10653.4</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>38.2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1759.5</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1735</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2196.2</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2182.7</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4661.8</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>79.9</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2257.6</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8251.9</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2016.6</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1849.6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>590.3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>378.5</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1358.3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>53</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1109.4</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1035.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="H20" t="n">
         <v>1.861</v>
@@ -1417,7 +1417,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1700.1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>243.4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>15883.1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>776.8</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>564.3</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1747.2</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>38.3</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>544.4</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>63</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>656.6</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>513.6</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1591.7</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4479.6</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>841.5</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>895.4</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>335.9</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1837,13 +1837,13 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>148.7</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>200.6</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1174.6</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>10083.5</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>74</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1204.2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4662.6</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
